--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -47,10 +47,10 @@
     <t>Method</t>
   </si>
   <si>
-    <t>VA.MHV.PHR.lab</t>
-  </si>
-  <si>
-    <t>VA MHV PHR lab</t>
+    <t>VA.MHV.PHR.labTest</t>
+  </si>
+  <si>
+    <t>VA MHV PHR labTest</t>
   </si>
   <si>
     <t>null#laboratory</t>

--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Profile</t>
   </si>
@@ -53,7 +53,7 @@
     <t>VA MHV PHR labTest</t>
   </si>
   <si>
-    <t>null#laboratory</t>
+    <t>Observation Category Codes#laboratory</t>
   </si>
   <si>
     <t/>
@@ -69,6 +69,21 @@
   </si>
   <si>
     <t>optional</t>
+  </si>
+  <si>
+    <t>VA.MHV.PHR.vitals</t>
+  </si>
+  <si>
+    <t>VA MHV PHR Vital-Signs</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#vital-signs</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-vital-signs (extensible)</t>
+  </si>
+  <si>
+    <t>dateTimeĵ, Periodĵ</t>
   </si>
 </sst>
 </file>
@@ -202,7 +217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -278,6 +293,41 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
   <si>
     <t>Profile</t>
   </si>
@@ -83,7 +83,37 @@
     <t>http://hl7.org/fhir/us/core/ValueSet/us-core-vital-signs (extensible)</t>
   </si>
   <si>
+    <t>dateTimeĵ</t>
+  </si>
+  <si>
+    <t>prohibited</t>
+  </si>
+  <si>
+    <t>VA.MHV.PHR.vitalsBP</t>
+  </si>
+  <si>
+    <t>VA MHV PHR Vital-Signs for Blood Pressure</t>
+  </si>
+  <si>
+    <t>LOINC#85354-9</t>
+  </si>
+  <si>
     <t>dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
+    <t>LOINC#8480-6</t>
+  </si>
+  <si>
+    <t>Quantityĵ</t>
+  </si>
+  <si>
+    <t>LOINC#8462-4</t>
+  </si>
+  <si>
+    <t>VA.MHV.PHR.vitalsPain</t>
+  </si>
+  <si>
+    <t>VA MHV PHR Vital-Signs for PAIN</t>
   </si>
 </sst>
 </file>
@@ -217,7 +247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -319,12 +349,152 @@
         <v>17</v>
       </c>
       <c r="I3" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="J3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K3" t="s" s="2">
+      <c r="J4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K7" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
   <si>
     <t>Profile</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>LOINC#85354-9</t>
-  </si>
-  <si>
-    <t>dateTimeĵ, Periodĵ</t>
   </si>
   <si>
     <t>LOINC#8480-6</t>
@@ -378,13 +375,13 @@
         <v>14</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>14</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>14</v>
@@ -407,16 +404,16 @@
         <v>14</v>
       </c>
       <c r="E5" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>30</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>18</v>
@@ -442,7 +439,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>14</v>
@@ -451,7 +448,7 @@
         <v>14</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -465,10 +462,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="B7" t="s" s="2">
-        <v>33</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>21</v>
@@ -483,13 +480,13 @@
         <v>22</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>14</v>

--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="35">
   <si>
     <t>Profile</t>
   </si>
@@ -47,24 +47,36 @@
     <t>Method</t>
   </si>
   <si>
+    <t>VA.MHV.PHR.cbcTest</t>
+  </si>
+  <si>
+    <t>VA MHV PHR CBC labTest</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes (extensible)</t>
+  </si>
+  <si>
+    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
+  </si>
+  <si>
+    <t>Quantityĵ</t>
+  </si>
+  <si>
+    <t>prohibited</t>
+  </si>
+  <si>
     <t>VA.MHV.PHR.labTest</t>
   </si>
   <si>
     <t>VA MHV PHR labTest</t>
   </si>
   <si>
-    <t>Observation Category Codes#laboratory</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes (extensible)</t>
-  </si>
-  <si>
-    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
-  </si>
-  <si>
     <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
   </si>
   <si>
@@ -86,9 +98,6 @@
     <t>dateTimeĵ</t>
   </si>
   <si>
-    <t>prohibited</t>
-  </si>
-  <si>
     <t>VA.MHV.PHR.vitalsBP</t>
   </si>
   <si>
@@ -99,9 +108,6 @@
   </si>
   <si>
     <t>LOINC#8480-6</t>
-  </si>
-  <si>
-    <t>Quantityĵ</t>
   </si>
   <si>
     <t>LOINC#8462-4</t>
@@ -244,7 +250,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -328,25 +334,25 @@
         <v>20</v>
       </c>
       <c r="C3" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s" s="2">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="D3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s" s="2">
+      <c r="I3" t="s" s="2">
         <v>22</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>24</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>14</v>
@@ -357,31 +363,31 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="D4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="G4" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="D4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="F4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="I4" t="s" s="2">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>14</v>
@@ -392,28 +398,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>18</v>
@@ -430,7 +436,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>14</v>
@@ -439,7 +445,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>14</v>
@@ -448,10 +454,10 @@
         <v>14</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>14</v>
@@ -462,36 +468,71 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="C7" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="F7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="G7" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>24</v>
-      </c>
       <c r="J7" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K8" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -47,10 +47,10 @@
     <t>Method</t>
   </si>
   <si>
-    <t>VA.MHV.PHR.cbcTest</t>
-  </si>
-  <si>
-    <t>VA MHV PHR CBC labTest</t>
+    <t>VA.MHV.PHR.chTest</t>
+  </si>
+  <si>
+    <t>VA MHV PHR CH labTest</t>
   </si>
   <si>
     <t>Observation Category Codes#laboratory</t>

--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="36">
   <si>
     <t>Profile</t>
   </si>
@@ -65,49 +65,52 @@
     <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
   </si>
   <si>
+    <t>Quantityĵ, stringĵ</t>
+  </si>
+  <si>
+    <t>prohibited</t>
+  </si>
+  <si>
+    <t>VA.MHV.PHR.labTest</t>
+  </si>
+  <si>
+    <t>VA MHV PHR labTest</t>
+  </si>
+  <si>
+    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>VA.MHV.PHR.vitals</t>
+  </si>
+  <si>
+    <t>VA MHV PHR Vital-Signs</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#vital-signs</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-vital-signs (extensible)</t>
+  </si>
+  <si>
+    <t>dateTimeĵ</t>
+  </si>
+  <si>
+    <t>VA.MHV.PHR.vitalsBP</t>
+  </si>
+  <si>
+    <t>VA MHV PHR Vital-Signs for Blood Pressure</t>
+  </si>
+  <si>
+    <t>LOINC#85354-9</t>
+  </si>
+  <si>
+    <t>LOINC#8480-6</t>
+  </si>
+  <si>
     <t>Quantityĵ</t>
-  </si>
-  <si>
-    <t>prohibited</t>
-  </si>
-  <si>
-    <t>VA.MHV.PHR.labTest</t>
-  </si>
-  <si>
-    <t>VA MHV PHR labTest</t>
-  </si>
-  <si>
-    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>VA.MHV.PHR.vitals</t>
-  </si>
-  <si>
-    <t>VA MHV PHR Vital-Signs</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#vital-signs</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-vital-signs (extensible)</t>
-  </si>
-  <si>
-    <t>dateTimeĵ</t>
-  </si>
-  <si>
-    <t>VA.MHV.PHR.vitalsBP</t>
-  </si>
-  <si>
-    <t>VA MHV PHR Vital-Signs for Blood Pressure</t>
-  </si>
-  <si>
-    <t>LOINC#85354-9</t>
-  </si>
-  <si>
-    <t>LOINC#8480-6</t>
   </si>
   <si>
     <t>LOINC#8462-4</t>
@@ -454,7 +457,7 @@
         <v>14</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>22</v>
@@ -480,16 +483,16 @@
         <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>17</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>22</v>
@@ -503,10 +506,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>25</v>
@@ -524,7 +527,7 @@
         <v>27</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>

--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="40">
   <si>
     <t>Profile</t>
   </si>
@@ -47,16 +47,31 @@
     <t>Method</t>
   </si>
   <si>
+    <t>VA.MHV.PHR.chPanel</t>
+  </si>
+  <si>
+    <t>VA MHV PHR CH labTests.orderedTestCode</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#laboratory</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing, instant</t>
+  </si>
+  <si>
+    <t>prohibited</t>
+  </si>
+  <si>
     <t>VA.MHV.PHR.chTest</t>
   </si>
   <si>
-    <t>VA MHV PHR CH labTest</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#laboratory</t>
-  </si>
-  <si>
-    <t/>
+    <t>VA MHV PHR CH labTest.chemistryResults</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-codes (extensible)</t>
@@ -66,9 +81,6 @@
   </si>
   <si>
     <t>Quantityĵ, stringĵ</t>
-  </si>
-  <si>
-    <t>prohibited</t>
   </si>
   <si>
     <t>VA.MHV.PHR.labTest</t>
@@ -253,7 +265,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -317,10 +329,10 @@
         <v>16</v>
       </c>
       <c r="H2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s" s="2">
         <v>17</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>18</v>
       </c>
       <c r="J2" t="s" s="2">
         <v>14</v>
@@ -331,10 +343,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="B3" t="s" s="2">
-        <v>20</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>13</v>
@@ -346,16 +358,16 @@
         <v>14</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>14</v>
@@ -372,25 +384,25 @@
         <v>24</v>
       </c>
       <c r="C4" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="D4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s" s="2">
+      <c r="I4" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="H4" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="I4" t="s" s="2">
-        <v>18</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>14</v>
@@ -401,31 +413,31 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="C5" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="D5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H5" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="D5" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="H5" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="I5" t="s" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>14</v>
@@ -436,31 +448,31 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="C6" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="D6" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E6" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="F6" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="H6" t="s" s="2">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>14</v>
@@ -474,7 +486,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s" s="2">
         <v>14</v>
@@ -483,7 +495,7 @@
         <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>14</v>
@@ -492,10 +504,10 @@
         <v>14</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>14</v>
@@ -506,36 +518,71 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s" s="2">
         <v>26</v>
       </c>
-      <c r="G8" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="H8" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>18</v>
-      </c>
       <c r="J8" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H9" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -253,10 +253,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>

--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="45">
   <si>
     <t>Profile</t>
   </si>
@@ -126,6 +126,21 @@
   </si>
   <si>
     <t>LOINC#8462-4</t>
+  </si>
+  <si>
+    <t>VA.MHV.PHR.vitalsOx</t>
+  </si>
+  <si>
+    <t>VA MHV PHR Pulse Oximetry Vital-Signs</t>
+  </si>
+  <si>
+    <t>null#59408-5, null#2708-6</t>
+  </si>
+  <si>
+    <t>LOINC#3151-8</t>
+  </si>
+  <si>
+    <t>LOINC#3150-0</t>
   </si>
   <si>
     <t>VA.MHV.PHR.vitalsPain</t>
@@ -265,7 +280,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -565,7 +580,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>30</v>
@@ -574,7 +589,7 @@
         <v>31</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>17</v>
@@ -583,6 +598,111 @@
         <v>14</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K10" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="J11" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
   <si>
     <t>Profile</t>
   </si>
@@ -147,6 +147,15 @@
   </si>
   <si>
     <t>VA MHV PHR Vital-Signs for PAIN</t>
+  </si>
+  <si>
+    <t>null#72514-3</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>integerĵ</t>
   </si>
 </sst>
 </file>
@@ -452,7 +461,7 @@
         <v>25</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>14</v>
@@ -487,7 +496,7 @@
         <v>14</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>14</v>
@@ -592,7 +601,7 @@
         <v>25</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>14</v>
@@ -685,19 +694,19 @@
         <v>14</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>14</v>

--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="45">
   <si>
     <t>Profile</t>
   </si>
@@ -47,10 +47,10 @@
     <t>Method</t>
   </si>
   <si>
-    <t>VA.MHV.PHR.chPanel</t>
-  </si>
-  <si>
-    <t>VA MHV PHR CH labTests.orderedTestCode</t>
+    <t>VA.MHV.PHR.chTest</t>
+  </si>
+  <si>
+    <t>VA MHV PHR CH labTest.chemistryResults</t>
   </si>
   <si>
     <t>Observation Category Codes#laboratory</t>
@@ -59,97 +59,88 @@
     <t/>
   </si>
   <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes (extensible)</t>
+  </si>
+  <si>
+    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
+  </si>
+  <si>
+    <t>Quantityĵ, stringĵ</t>
+  </si>
+  <si>
+    <t>prohibited</t>
+  </si>
+  <si>
+    <t>VA.MHV.PHR.labTest</t>
+  </si>
+  <si>
+    <t>VA MHV PHR labTest</t>
+  </si>
+  <si>
+    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>VA.MHV.PHR.vitals</t>
+  </si>
+  <si>
+    <t>VA MHV PHR Vital-Signs</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#vital-signs</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-vital-signs (extensible)</t>
+  </si>
+  <si>
+    <t>dateTimeĵ</t>
+  </si>
+  <si>
+    <t>VA.MHV.PHR.vitalsBP</t>
+  </si>
+  <si>
+    <t>VA MHV PHR Vital-Signs for Blood Pressure</t>
+  </si>
+  <si>
+    <t>LOINC#85354-9</t>
+  </si>
+  <si>
+    <t>LOINC#8480-6</t>
+  </si>
+  <si>
+    <t>Quantityĵ</t>
+  </si>
+  <si>
+    <t>LOINC#8462-4</t>
+  </si>
+  <si>
+    <t>VA.MHV.PHR.vitalsOx</t>
+  </si>
+  <si>
+    <t>VA MHV PHR Pulse Oximetry Vital-Signs</t>
+  </si>
+  <si>
+    <t>null#59408-5, null#2708-6</t>
+  </si>
+  <si>
+    <t>LOINC#3151-8</t>
+  </si>
+  <si>
+    <t>LOINC#3150-0</t>
+  </si>
+  <si>
+    <t>VA.MHV.PHR.vitalsPain</t>
+  </si>
+  <si>
+    <t>VA MHV PHR Vital-Signs for PAIN</t>
+  </si>
+  <si>
+    <t>null#72514-3</t>
+  </si>
+  <si>
     <t>http://hl7.org/fhir/ValueSet/observation-codes (example)</t>
-  </si>
-  <si>
-    <t>dateTime, Period, Timing, instant</t>
-  </si>
-  <si>
-    <t>prohibited</t>
-  </si>
-  <si>
-    <t>VA.MHV.PHR.chTest</t>
-  </si>
-  <si>
-    <t>VA MHV PHR CH labTest.chemistryResults</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes (extensible)</t>
-  </si>
-  <si>
-    <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
-  </si>
-  <si>
-    <t>Quantityĵ, stringĵ</t>
-  </si>
-  <si>
-    <t>VA.MHV.PHR.labTest</t>
-  </si>
-  <si>
-    <t>VA MHV PHR labTest</t>
-  </si>
-  <si>
-    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>VA.MHV.PHR.vitals</t>
-  </si>
-  <si>
-    <t>VA MHV PHR Vital-Signs</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#vital-signs</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-vital-signs (extensible)</t>
-  </si>
-  <si>
-    <t>dateTimeĵ</t>
-  </si>
-  <si>
-    <t>VA.MHV.PHR.vitalsBP</t>
-  </si>
-  <si>
-    <t>VA MHV PHR Vital-Signs for Blood Pressure</t>
-  </si>
-  <si>
-    <t>LOINC#85354-9</t>
-  </si>
-  <si>
-    <t>LOINC#8480-6</t>
-  </si>
-  <si>
-    <t>Quantityĵ</t>
-  </si>
-  <si>
-    <t>LOINC#8462-4</t>
-  </si>
-  <si>
-    <t>VA.MHV.PHR.vitalsOx</t>
-  </si>
-  <si>
-    <t>VA MHV PHR Pulse Oximetry Vital-Signs</t>
-  </si>
-  <si>
-    <t>null#59408-5, null#2708-6</t>
-  </si>
-  <si>
-    <t>LOINC#3151-8</t>
-  </si>
-  <si>
-    <t>LOINC#3150-0</t>
-  </si>
-  <si>
-    <t>VA.MHV.PHR.vitalsPain</t>
-  </si>
-  <si>
-    <t>VA MHV PHR Vital-Signs for PAIN</t>
-  </si>
-  <si>
-    <t>null#72514-3</t>
   </si>
   <si>
     <t>dateTime</t>
@@ -289,7 +280,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -353,10 +344,10 @@
         <v>16</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s" s="2">
         <v>14</v>
@@ -367,10 +358,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>13</v>
@@ -382,16 +373,16 @@
         <v>14</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>22</v>
-      </c>
       <c r="I3" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>14</v>
@@ -408,7 +399,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>14</v>
@@ -417,16 +408,16 @@
         <v>14</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="H4" t="s" s="2">
-        <v>25</v>
-      </c>
       <c r="I4" t="s" s="2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>14</v>
@@ -437,31 +428,31 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="B5" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="G5" t="s" s="2">
-        <v>31</v>
-      </c>
       <c r="H5" t="s" s="2">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>14</v>
@@ -472,31 +463,31 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="B6" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="I6" t="s" s="2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>14</v>
@@ -510,17 +501,17 @@
         <v>14</v>
       </c>
       <c r="B7" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="C7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>35</v>
-      </c>
       <c r="F7" t="s" s="2">
         <v>14</v>
       </c>
@@ -528,10 +519,10 @@
         <v>14</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>14</v>
@@ -542,31 +533,31 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>14</v>
@@ -577,31 +568,31 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>14</v>
@@ -615,7 +606,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>14</v>
@@ -624,7 +615,7 @@
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>14</v>
@@ -633,10 +624,10 @@
         <v>14</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>14</v>
@@ -647,71 +638,36 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="F11" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="G11" t="s" s="2">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>14</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K12" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/docs/observations-summary.xlsx
+++ b/docs/observations-summary.xlsx
@@ -80,22 +80,22 @@
     <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ</t>
   </si>
   <si>
+    <t>VA.MHV.PHR.vitals</t>
+  </si>
+  <si>
+    <t>VA MHV PHR Vital-Signs</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#vital-signs</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-vital-signs (extensible)</t>
+  </si>
+  <si>
+    <t>dateTimeĵ</t>
+  </si>
+  <si>
     <t>optional</t>
-  </si>
-  <si>
-    <t>VA.MHV.PHR.vitals</t>
-  </si>
-  <si>
-    <t>VA MHV PHR Vital-Signs</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#vital-signs</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-vital-signs (extensible)</t>
-  </si>
-  <si>
-    <t>dateTimeĵ</t>
   </si>
   <si>
     <t>VA.MHV.PHR.vitalsBP</t>
@@ -382,7 +382,7 @@
         <v>21</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>14</v>
@@ -393,31 +393,31 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="C4" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="C4" t="s" s="2">
+      <c r="D4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="D4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s" s="2">
+      <c r="G4" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="G4" t="s" s="2">
-        <v>27</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>21</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>14</v>
@@ -434,7 +434,7 @@
         <v>29</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>14</v>
@@ -446,13 +446,13 @@
         <v>14</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>14</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J5" t="s" s="2">
         <v>14</v>
@@ -487,7 +487,7 @@
         <v>32</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>14</v>
@@ -522,7 +522,7 @@
         <v>32</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>14</v>
@@ -539,7 +539,7 @@
         <v>35</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s" s="2">
         <v>14</v>
@@ -548,16 +548,16 @@
         <v>36</v>
       </c>
       <c r="F8" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s" s="2">
         <v>26</v>
-      </c>
-      <c r="G8" t="s" s="2">
-        <v>27</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>21</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>14</v>
@@ -592,7 +592,7 @@
         <v>32</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>14</v>
@@ -627,7 +627,7 @@
         <v>32</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>14</v>
@@ -644,7 +644,7 @@
         <v>40</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>14</v>
@@ -662,7 +662,7 @@
         <v>44</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="J11" t="s" s="2">
         <v>14</v>
